--- a/sync_commcare_assets/lab_result-source-target-mappings.xlsx
+++ b/sync_commcare_assets/lab_result-source-target-mappings.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="lab_result" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>Data Source</t>
   </si>
@@ -59,12 +59,66 @@
     <t>properties.accession_number</t>
   </si>
   <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>properties.address</t>
+  </si>
+  <si>
+    <t>address_city</t>
+  </si>
+  <si>
+    <t>properties.address_city</t>
+  </si>
+  <si>
+    <t>address_complete</t>
+  </si>
+  <si>
+    <t>properties.address_complete</t>
+  </si>
+  <si>
+    <t>address_county</t>
+  </si>
+  <si>
+    <t>properties.address_county</t>
+  </si>
+  <si>
+    <t>address_state</t>
+  </si>
+  <si>
+    <t>properties.address_state</t>
+  </si>
+  <si>
+    <t>address_street</t>
+  </si>
+  <si>
+    <t>properties.address_street</t>
+  </si>
+  <si>
+    <t>address_zip</t>
+  </si>
+  <si>
+    <t>properties.address_zip</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>properties.age</t>
+  </si>
+  <si>
     <t>analysis_date</t>
   </si>
   <si>
     <t>properties.analysis_date</t>
   </si>
   <si>
+    <t>case_import_date</t>
+  </si>
+  <si>
+    <t>properties.case_import_date</t>
+  </si>
+  <si>
     <t>case_link</t>
   </si>
   <si>
@@ -116,12 +170,66 @@
     <t>properties.closed_date</t>
   </si>
   <si>
+    <t>contact_phone_number</t>
+  </si>
+  <si>
+    <t>properties.contact_phone_number</t>
+  </si>
+  <si>
     <t>created_manually</t>
   </si>
   <si>
     <t>properties.created_manually</t>
   </si>
   <si>
+    <t>current_status</t>
+  </si>
+  <si>
+    <t>properties.current_status</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>properties.dob</t>
+  </si>
+  <si>
+    <t>dob_known</t>
+  </si>
+  <si>
+    <t>properties.dob_known</t>
+  </si>
+  <si>
+    <t>ethnicity</t>
+  </si>
+  <si>
+    <t>properties.ethnicity</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>properties.first_name</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>properties.full_name</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>properties.gender</t>
+  </si>
+  <si>
+    <t>has_phone_number</t>
+  </si>
+  <si>
+    <t>properties.has_phone_number</t>
+  </si>
+  <si>
     <t>indices patient</t>
   </si>
   <si>
@@ -161,6 +269,18 @@
     <t>properties.last_modified_date</t>
   </si>
   <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>properties.last_name</t>
+  </si>
+  <si>
+    <t>ltcf</t>
+  </si>
+  <si>
+    <t>properties.ltcf</t>
+  </si>
+  <si>
     <t>most_recent_case_note</t>
   </si>
   <si>
@@ -209,10 +329,34 @@
     <t>properties.ordering_provider</t>
   </si>
   <si>
+    <t>owner_id</t>
+  </si>
+  <si>
+    <t>properties.owner_id</t>
+  </si>
+  <si>
     <t>owner_name</t>
   </si>
   <si>
     <t>properties.owner_name</t>
+  </si>
+  <si>
+    <t>patient_type</t>
+  </si>
+  <si>
+    <t>properties.patient_type</t>
+  </si>
+  <si>
+    <t>phone_home</t>
+  </si>
+  <si>
+    <t>properties.phone_home</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>properties.race</t>
   </si>
   <si>
     <t>specimen_collection_date</t>
@@ -265,15 +409,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -566,7 +710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,186 +828,378 @@
         <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="E12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="E15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="E17" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="E18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="E19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="E20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="E21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="E22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="E23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="E24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="E25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="E26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="E27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="E28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="E29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="E30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="E31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="E32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="E33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="E34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="E36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="E37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="E38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="E39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="E41" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="E43" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="E44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="E45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="E46" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="E47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="E48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="E49" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="E50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="E51" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="E52" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="E53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="E54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="E55" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="E56" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="E57" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>